--- a/data/pca/factorExposure/factorExposure_2010-01-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-27.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.004611217378733635</v>
+        <v>0.01713018529281751</v>
       </c>
       <c r="C2">
-        <v>-0.01645333948604842</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.001017310625204308</v>
+      </c>
+      <c r="D2">
+        <v>-0.006759524316980013</v>
+      </c>
+      <c r="E2">
+        <v>-0.0001278854896653283</v>
+      </c>
+      <c r="F2">
+        <v>0.009615786417661599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.03087371357903673</v>
+        <v>0.09382091968018053</v>
       </c>
       <c r="C4">
-        <v>-0.1238061783392087</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.01596855612820322</v>
+      </c>
+      <c r="D4">
+        <v>-0.08244081581071362</v>
+      </c>
+      <c r="E4">
+        <v>-0.02791334909408584</v>
+      </c>
+      <c r="F4">
+        <v>-0.03060641885864209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03976123574751973</v>
+        <v>0.1566258289548237</v>
       </c>
       <c r="C6">
-        <v>-0.1072969088830554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.02524470862464055</v>
+      </c>
+      <c r="D6">
+        <v>0.0235388651078151</v>
+      </c>
+      <c r="E6">
+        <v>-0.008728200190768452</v>
+      </c>
+      <c r="F6">
+        <v>-0.04695333311336085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01105506229769772</v>
+        <v>0.06035013369473002</v>
       </c>
       <c r="C7">
-        <v>-0.07267279785500046</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0007914083869801402</v>
+      </c>
+      <c r="D7">
+        <v>-0.05198457290500545</v>
+      </c>
+      <c r="E7">
+        <v>-0.01050725897567501</v>
+      </c>
+      <c r="F7">
+        <v>-0.04246098277555591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.003075681471794912</v>
+        <v>0.05825884854220593</v>
       </c>
       <c r="C8">
-        <v>-0.06011615797408375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01331017339684766</v>
+      </c>
+      <c r="D8">
+        <v>-0.03192599175082894</v>
+      </c>
+      <c r="E8">
+        <v>-0.0171135890771404</v>
+      </c>
+      <c r="F8">
+        <v>0.02790707217089509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02653034524265211</v>
+        <v>0.07149061756718449</v>
       </c>
       <c r="C9">
-        <v>-0.0974903627949833</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.01180454765063635</v>
+      </c>
+      <c r="D9">
+        <v>-0.08457580010891554</v>
+      </c>
+      <c r="E9">
+        <v>-0.02284357522646719</v>
+      </c>
+      <c r="F9">
+        <v>-0.04628344658342003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.006811081370752943</v>
+        <v>0.09423465441906645</v>
       </c>
       <c r="C10">
-        <v>-0.03208340454810241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.01857918110929094</v>
+      </c>
+      <c r="D10">
+        <v>0.1707154319724231</v>
+      </c>
+      <c r="E10">
+        <v>0.03753442510210184</v>
+      </c>
+      <c r="F10">
+        <v>0.05698230127472952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03023899468010789</v>
+        <v>0.0878144339777385</v>
       </c>
       <c r="C11">
-        <v>-0.1069874811680566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.01151447926394755</v>
+      </c>
+      <c r="D11">
+        <v>-0.1166371756053294</v>
+      </c>
+      <c r="E11">
+        <v>-0.04711493761932022</v>
+      </c>
+      <c r="F11">
+        <v>-0.01993309762395304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.02794116691963828</v>
+        <v>0.09243248492898383</v>
       </c>
       <c r="C12">
-        <v>-0.1151308894052846</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.008965586842826039</v>
+      </c>
+      <c r="D12">
+        <v>-0.1292405708906318</v>
+      </c>
+      <c r="E12">
+        <v>-0.04705667611222599</v>
+      </c>
+      <c r="F12">
+        <v>-0.02329884779894901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.008227288702880966</v>
+        <v>0.04262084572301702</v>
       </c>
       <c r="C13">
-        <v>-0.03818680668905939</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.003902792275409597</v>
+      </c>
+      <c r="D13">
+        <v>-0.04937920411432253</v>
+      </c>
+      <c r="E13">
+        <v>0.01105185781757922</v>
+      </c>
+      <c r="F13">
+        <v>-0.002396675491563375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01575401397804228</v>
+        <v>0.02216809881820347</v>
       </c>
       <c r="C14">
-        <v>-0.02541147705467206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01410775939288787</v>
+      </c>
+      <c r="D14">
+        <v>-0.03358003523594072</v>
+      </c>
+      <c r="E14">
+        <v>-0.01691858821195369</v>
+      </c>
+      <c r="F14">
+        <v>-0.01308848714997626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01178618440871259</v>
+        <v>0.03147712265390563</v>
       </c>
       <c r="C15">
-        <v>-0.02680219602672489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.005217477247028035</v>
+      </c>
+      <c r="D15">
+        <v>-0.0450883971281208</v>
+      </c>
+      <c r="E15">
+        <v>-0.006551159259411635</v>
+      </c>
+      <c r="F15">
+        <v>-0.02169157359223029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.01938765118778433</v>
+        <v>0.07306028574212653</v>
       </c>
       <c r="C16">
-        <v>-0.1122915867994499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.002425163181197281</v>
+      </c>
+      <c r="D16">
+        <v>-0.1261508235448399</v>
+      </c>
+      <c r="E16">
+        <v>-0.06226761656313427</v>
+      </c>
+      <c r="F16">
+        <v>-0.02288718796668363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02704709595664532</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.003349643581057777</v>
+      </c>
+      <c r="D18">
+        <v>-0.02025162662072948</v>
+      </c>
+      <c r="E18">
+        <v>0.007046479921222972</v>
+      </c>
+      <c r="F18">
+        <v>0.008803686571586079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01263878479950568</v>
+        <v>0.0601151031782849</v>
       </c>
       <c r="C20">
-        <v>-0.06828664495025293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0007295718938064797</v>
+      </c>
+      <c r="D20">
+        <v>-0.07725704554855203</v>
+      </c>
+      <c r="E20">
+        <v>-0.05588254651490093</v>
+      </c>
+      <c r="F20">
+        <v>-0.0211427041441165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.009757857304083345</v>
+        <v>0.03897507047019903</v>
       </c>
       <c r="C21">
-        <v>-0.02124001031311511</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.006508474136282386</v>
+      </c>
+      <c r="D21">
+        <v>-0.03700740596018345</v>
+      </c>
+      <c r="E21">
+        <v>0.006366265655966243</v>
+      </c>
+      <c r="F21">
+        <v>0.02761057680399091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.001441834607757173</v>
+        <v>0.04501886022612191</v>
       </c>
       <c r="C22">
-        <v>-0.0349054600745781</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.0008388151585960071</v>
+      </c>
+      <c r="D22">
+        <v>-0.002137830017002791</v>
+      </c>
+      <c r="E22">
+        <v>-0.0290423553983103</v>
+      </c>
+      <c r="F22">
+        <v>0.0323376579550585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.001438341639725102</v>
+        <v>0.04494770264236093</v>
       </c>
       <c r="C23">
-        <v>-0.03459074631273962</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.0008307870216504305</v>
+      </c>
+      <c r="D23">
+        <v>-0.002281651666990997</v>
+      </c>
+      <c r="E23">
+        <v>-0.02927955367691476</v>
+      </c>
+      <c r="F23">
+        <v>0.03209943239311252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02016198398762827</v>
+        <v>0.07987079216449357</v>
       </c>
       <c r="C24">
-        <v>-0.11162877472092</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.003153991986122331</v>
+      </c>
+      <c r="D24">
+        <v>-0.1202010549876856</v>
+      </c>
+      <c r="E24">
+        <v>-0.05040025816422338</v>
+      </c>
+      <c r="F24">
+        <v>-0.02370263278673314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.02492357527072036</v>
+        <v>0.08509815115015473</v>
       </c>
       <c r="C25">
-        <v>-0.1175952781539116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.005281038542799335</v>
+      </c>
+      <c r="D25">
+        <v>-0.1092280318434557</v>
+      </c>
+      <c r="E25">
+        <v>-0.03345143448585886</v>
+      </c>
+      <c r="F25">
+        <v>-0.02509223535806083</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02283580835265091</v>
+        <v>0.0562695895761389</v>
       </c>
       <c r="C26">
-        <v>-0.04789267878228161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.01461123984289456</v>
+      </c>
+      <c r="D26">
+        <v>-0.0420561391846126</v>
+      </c>
+      <c r="E26">
+        <v>-0.02742121985703385</v>
+      </c>
+      <c r="F26">
+        <v>0.01129169115864213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.003821913619214361</v>
+        <v>0.1411814509289839</v>
       </c>
       <c r="C28">
-        <v>-0.02296994676101366</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.0179219474825326</v>
+      </c>
+      <c r="D28">
+        <v>0.26414523984322</v>
+      </c>
+      <c r="E28">
+        <v>0.06993778509946101</v>
+      </c>
+      <c r="F28">
+        <v>-0.006817602673696728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01557573623486528</v>
+        <v>0.02651811369878963</v>
       </c>
       <c r="C29">
-        <v>-0.02808700792997816</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.008199871317357395</v>
+      </c>
+      <c r="D29">
+        <v>-0.03324127251378387</v>
+      </c>
+      <c r="E29">
+        <v>-0.01100779185628507</v>
+      </c>
+      <c r="F29">
+        <v>0.01199387948230848</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.01859576643780205</v>
+        <v>0.0619476160417516</v>
       </c>
       <c r="C30">
-        <v>-0.1267298981260681</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.004652525746100098</v>
+      </c>
+      <c r="D30">
+        <v>-0.08684014061158299</v>
+      </c>
+      <c r="E30">
+        <v>-0.02029664213168275</v>
+      </c>
+      <c r="F30">
+        <v>-0.08102846620128661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02311242642941591</v>
+        <v>0.04937623337350021</v>
       </c>
       <c r="C31">
-        <v>-0.0356211813115812</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01532536445440081</v>
+      </c>
+      <c r="D31">
+        <v>-0.02529815036250398</v>
+      </c>
+      <c r="E31">
+        <v>-0.02744025006088969</v>
+      </c>
+      <c r="F31">
+        <v>0.002995505062046708</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.008596132973961057</v>
+        <v>0.0490227084509877</v>
       </c>
       <c r="C32">
-        <v>-0.06115957518278266</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.001278867165533291</v>
+      </c>
+      <c r="D32">
+        <v>-0.03641816751499598</v>
+      </c>
+      <c r="E32">
+        <v>-0.03105777032232766</v>
+      </c>
+      <c r="F32">
+        <v>0.0003444387656906057</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02587252272421316</v>
+        <v>0.0899026272709211</v>
       </c>
       <c r="C33">
-        <v>-0.1163848565989</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.008657275391982302</v>
+      </c>
+      <c r="D33">
+        <v>-0.09758266082405767</v>
+      </c>
+      <c r="E33">
+        <v>-0.04520146837275935</v>
+      </c>
+      <c r="F33">
+        <v>-0.03282682203819487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.02806504315863063</v>
+        <v>0.0680737030666</v>
       </c>
       <c r="C34">
-        <v>-0.09734194921001824</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01178431531927416</v>
+      </c>
+      <c r="D34">
+        <v>-0.1056340575679862</v>
+      </c>
+      <c r="E34">
+        <v>-0.03487352468687053</v>
+      </c>
+      <c r="F34">
+        <v>-0.03201170032121421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.002862711803119782</v>
+        <v>0.02428190976369516</v>
       </c>
       <c r="C35">
-        <v>-0.01337183429444638</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002332829583910785</v>
+      </c>
+      <c r="D35">
+        <v>-0.01296910978699377</v>
+      </c>
+      <c r="E35">
+        <v>-0.01172566042813054</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008690580924546615</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.0116103553065925</v>
+        <v>0.02540093499636404</v>
       </c>
       <c r="C36">
-        <v>-0.02868630907741206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.007313426133093875</v>
+      </c>
+      <c r="D36">
+        <v>-0.03962562831099275</v>
+      </c>
+      <c r="E36">
+        <v>-0.01549420828737075</v>
+      </c>
+      <c r="F36">
+        <v>-0.01390232078322565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0007647701110072361</v>
+        <v>0.001530755856051984</v>
       </c>
       <c r="C38">
-        <v>-0.005403669057226981</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.0002448886599064578</v>
+      </c>
+      <c r="D38">
+        <v>-0.0005072170354308521</v>
+      </c>
+      <c r="E38">
+        <v>-0.001061263578040287</v>
+      </c>
+      <c r="F38">
+        <v>0.0006334218425958735</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.0434341890688144</v>
+        <v>0.1070063209904302</v>
       </c>
       <c r="C39">
-        <v>-0.1717485847139459</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.01698523234408821</v>
+      </c>
+      <c r="D39">
+        <v>-0.1531304039918863</v>
+      </c>
+      <c r="E39">
+        <v>-0.05960945549985609</v>
+      </c>
+      <c r="F39">
+        <v>-0.02805882432864633</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.008095287486465277</v>
+        <v>0.03958065464968135</v>
       </c>
       <c r="C40">
-        <v>-0.01368431067960385</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.007460045572171342</v>
+      </c>
+      <c r="D40">
+        <v>-0.03217887747983587</v>
+      </c>
+      <c r="E40">
+        <v>-0.003018789574243191</v>
+      </c>
+      <c r="F40">
+        <v>0.01800897240656338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01355960080675319</v>
+        <v>0.02649303732962033</v>
       </c>
       <c r="C41">
-        <v>-0.02093598538404769</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.006627859023362892</v>
+      </c>
+      <c r="D41">
+        <v>-0.01123079294277543</v>
+      </c>
+      <c r="E41">
+        <v>-0.01254983792654206</v>
+      </c>
+      <c r="F41">
+        <v>0.006913890556368895</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01204599801736494</v>
+        <v>0.03972326049008312</v>
       </c>
       <c r="C43">
-        <v>-0.02514716273400845</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.006839397427179114</v>
+      </c>
+      <c r="D43">
+        <v>-0.02062769686931915</v>
+      </c>
+      <c r="E43">
+        <v>-0.02522501087046779</v>
+      </c>
+      <c r="F43">
+        <v>0.0119826948890696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.03655224790682068</v>
+        <v>0.07728602216767655</v>
       </c>
       <c r="C44">
-        <v>-0.1324186525853638</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.02112637728036553</v>
+      </c>
+      <c r="D44">
+        <v>-0.09797196848690541</v>
+      </c>
+      <c r="E44">
+        <v>-0.06583707584154594</v>
+      </c>
+      <c r="F44">
+        <v>-0.1505799160009164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.005598768774467232</v>
+        <v>0.02378947371013571</v>
       </c>
       <c r="C46">
-        <v>-0.00887506225915256</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.003731160060591542</v>
+      </c>
+      <c r="D46">
+        <v>-0.01305079782866654</v>
+      </c>
+      <c r="E46">
+        <v>-0.02185437111157891</v>
+      </c>
+      <c r="F46">
+        <v>0.003573088514260776</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.01366157217717974</v>
+        <v>0.05073778336385189</v>
       </c>
       <c r="C47">
-        <v>-0.04227629002375954</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.00360018735477659</v>
+      </c>
+      <c r="D47">
+        <v>-0.01270643842486773</v>
+      </c>
+      <c r="E47">
+        <v>-0.02294342665355213</v>
+      </c>
+      <c r="F47">
+        <v>0.03371410118107716</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01338610322241783</v>
+        <v>0.04847562422938353</v>
       </c>
       <c r="C48">
-        <v>-0.04723394687063195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.002647440748207152</v>
+      </c>
+      <c r="D48">
+        <v>-0.05087927421872183</v>
+      </c>
+      <c r="E48">
+        <v>0.006209085200538402</v>
+      </c>
+      <c r="F48">
+        <v>-0.008554382510789698</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.0395035772695585</v>
+        <v>0.2022064461465302</v>
       </c>
       <c r="C49">
-        <v>-0.2060999330056531</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01879021953548693</v>
+      </c>
+      <c r="D49">
+        <v>0.01242497586629851</v>
+      </c>
+      <c r="E49">
+        <v>-0.03063184929831339</v>
+      </c>
+      <c r="F49">
+        <v>-0.03868157958750951</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.01941005623659938</v>
+        <v>0.0494999905818591</v>
       </c>
       <c r="C50">
-        <v>-0.04285269273447535</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01139091726121525</v>
+      </c>
+      <c r="D50">
+        <v>-0.02438362890997402</v>
+      </c>
+      <c r="E50">
+        <v>-0.02990360589128618</v>
+      </c>
+      <c r="F50">
+        <v>-0.007789052774527658</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0006422204859206247</v>
+        <v>0.001419308799838798</v>
       </c>
       <c r="C51">
-        <v>-0.004360452466186935</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.0003623564287627425</v>
+      </c>
+      <c r="D51">
+        <v>0.001614245410576387</v>
+      </c>
+      <c r="E51">
+        <v>2.793292859780978e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.002819329082749521</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.0327357581812289</v>
+        <v>0.146287471176983</v>
       </c>
       <c r="C52">
-        <v>-0.1454014449268652</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.0150707767069519</v>
+      </c>
+      <c r="D52">
+        <v>-0.04659628972348782</v>
+      </c>
+      <c r="E52">
+        <v>-0.02089374845856557</v>
+      </c>
+      <c r="F52">
+        <v>-0.04531393083220781</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.03085534342469923</v>
+        <v>0.1740668622510844</v>
       </c>
       <c r="C53">
-        <v>-0.1587202756907492</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01828053341672765</v>
+      </c>
+      <c r="D53">
+        <v>-0.005630048188522149</v>
+      </c>
+      <c r="E53">
+        <v>-0.0314980545803656</v>
+      </c>
+      <c r="F53">
+        <v>-0.07666635927153172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01530006444181425</v>
+        <v>0.02110161887917766</v>
       </c>
       <c r="C54">
-        <v>-0.04898726814512592</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01244045218990491</v>
+      </c>
+      <c r="D54">
+        <v>-0.03339731586647784</v>
+      </c>
+      <c r="E54">
+        <v>-0.0164056413002111</v>
+      </c>
+      <c r="F54">
+        <v>0.00399022636954074</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.0252466922954228</v>
+        <v>0.11433920192414</v>
       </c>
       <c r="C55">
-        <v>-0.08861284177850377</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01627814058366231</v>
+      </c>
+      <c r="D55">
+        <v>-0.009710186597110522</v>
+      </c>
+      <c r="E55">
+        <v>-0.02804559919122946</v>
+      </c>
+      <c r="F55">
+        <v>-0.04928482578331552</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.03457365768640587</v>
+        <v>0.1784679031052412</v>
       </c>
       <c r="C56">
-        <v>-0.1605128068426321</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.01557837093440718</v>
+      </c>
+      <c r="D56">
+        <v>-0.002045197103460376</v>
+      </c>
+      <c r="E56">
+        <v>-0.03743901086638417</v>
+      </c>
+      <c r="F56">
+        <v>-0.05604775366941857</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01190481099627908</v>
+        <v>0.0464526604635793</v>
       </c>
       <c r="C58">
-        <v>-0.04627693511219039</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.001281877309076711</v>
+      </c>
+      <c r="D58">
+        <v>-0.06722599050453641</v>
+      </c>
+      <c r="E58">
+        <v>-0.02744135283661173</v>
+      </c>
+      <c r="F58">
+        <v>0.039858456565403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.01233391406769064</v>
+        <v>0.1698215347361497</v>
       </c>
       <c r="C59">
-        <v>-0.08122046375955264</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.01864749506080002</v>
+      </c>
+      <c r="D59">
+        <v>0.2212007761220088</v>
+      </c>
+      <c r="E59">
+        <v>0.04558386701055797</v>
+      </c>
+      <c r="F59">
+        <v>0.03269938761715926</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.03476359494301201</v>
+        <v>0.2340244686472571</v>
       </c>
       <c r="C60">
-        <v>-0.2763378772188441</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.002872592406934954</v>
+      </c>
+      <c r="D60">
+        <v>-0.03931862973886197</v>
+      </c>
+      <c r="E60">
+        <v>-0.01072422501071429</v>
+      </c>
+      <c r="F60">
+        <v>0.001427399781015136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03160225042705585</v>
+        <v>0.08299708491772562</v>
       </c>
       <c r="C61">
-        <v>-0.1311144441508337</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.01283162927472158</v>
+      </c>
+      <c r="D61">
+        <v>-0.1162324303087081</v>
+      </c>
+      <c r="E61">
+        <v>-0.03945741103132887</v>
+      </c>
+      <c r="F61">
+        <v>-0.01222051768102805</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.03838380576442028</v>
+        <v>0.1702695533616949</v>
       </c>
       <c r="C62">
-        <v>-0.1683180673641224</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.01936118543530853</v>
+      </c>
+      <c r="D62">
+        <v>-0.007433271766064076</v>
+      </c>
+      <c r="E62">
+        <v>-0.0357040483012905</v>
+      </c>
+      <c r="F62">
+        <v>-0.03799437449577527</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01271461326750854</v>
+        <v>0.04329891146144285</v>
       </c>
       <c r="C63">
-        <v>-0.05614650635514611</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.002449680262005886</v>
+      </c>
+      <c r="D63">
+        <v>-0.05806071449633481</v>
+      </c>
+      <c r="E63">
+        <v>-0.01998691123902693</v>
+      </c>
+      <c r="F63">
+        <v>-0.004228094095890415</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.0250069124916491</v>
+        <v>0.1099513726798459</v>
       </c>
       <c r="C64">
-        <v>-0.09891057612125718</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01173341827908166</v>
+      </c>
+      <c r="D64">
+        <v>-0.04185716707941002</v>
+      </c>
+      <c r="E64">
+        <v>-0.02233442846477699</v>
+      </c>
+      <c r="F64">
+        <v>-0.02591735844773247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.0420758884755896</v>
+        <v>0.1464301912402348</v>
       </c>
       <c r="C65">
-        <v>-0.1067762212666925</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03198313745562244</v>
+      </c>
+      <c r="D65">
+        <v>0.04178647512972879</v>
+      </c>
+      <c r="E65">
+        <v>-0.002780895564106736</v>
+      </c>
+      <c r="F65">
+        <v>-0.03838064628044634</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04140294254547805</v>
+        <v>0.127737296141366</v>
       </c>
       <c r="C66">
-        <v>-0.2046724133430973</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.01498567621988789</v>
+      </c>
+      <c r="D66">
+        <v>-0.1417137225115246</v>
+      </c>
+      <c r="E66">
+        <v>-0.06782705996389708</v>
+      </c>
+      <c r="F66">
+        <v>-0.03138012012686543</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01692201419578311</v>
+        <v>0.0631132428539288</v>
       </c>
       <c r="C67">
-        <v>-0.06664488204485568</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.003276803713536</v>
+      </c>
+      <c r="D67">
+        <v>-0.05510136201246219</v>
+      </c>
+      <c r="E67">
+        <v>-0.01846020273066644</v>
+      </c>
+      <c r="F67">
+        <v>0.03224228547180458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.01449285709022555</v>
+        <v>0.1161288159674674</v>
       </c>
       <c r="C68">
-        <v>-0.02381391714367504</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.02785187769605067</v>
+      </c>
+      <c r="D68">
+        <v>0.2594587237328417</v>
+      </c>
+      <c r="E68">
+        <v>0.08753326224722013</v>
+      </c>
+      <c r="F68">
+        <v>-0.004600425181661351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.008237723973204991</v>
+        <v>0.03941230784085</v>
       </c>
       <c r="C69">
-        <v>-0.03391103384110233</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.00124517969405906</v>
+      </c>
+      <c r="D69">
+        <v>-0.00759309420810677</v>
+      </c>
+      <c r="E69">
+        <v>-0.02331394559342021</v>
+      </c>
+      <c r="F69">
+        <v>0.0005617205930976426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.001650542530353138</v>
+        <v>0.06325606803676401</v>
       </c>
       <c r="C70">
-        <v>-0.03590640386408039</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.02847729024401236</v>
+      </c>
+      <c r="D70">
+        <v>-0.0276330789247371</v>
+      </c>
+      <c r="E70">
+        <v>0.04267151033368453</v>
+      </c>
+      <c r="F70">
+        <v>0.1885236504875294</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.01786465570716156</v>
+        <v>0.135272676403625</v>
       </c>
       <c r="C71">
-        <v>-0.02773332999368099</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.03267514064782057</v>
+      </c>
+      <c r="D71">
+        <v>0.273533181691419</v>
+      </c>
+      <c r="E71">
+        <v>0.09733438569547954</v>
+      </c>
+      <c r="F71">
+        <v>-0.01092304480431745</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.03896407398063129</v>
+        <v>0.1411216728635213</v>
       </c>
       <c r="C72">
-        <v>-0.1147591829652485</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.02561123286767182</v>
+      </c>
+      <c r="D72">
+        <v>-0.001173915336246642</v>
+      </c>
+      <c r="E72">
+        <v>-0.04032244121270701</v>
+      </c>
+      <c r="F72">
+        <v>-0.0367216484183173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.03777206151444688</v>
+        <v>0.2011496846134904</v>
       </c>
       <c r="C73">
-        <v>-0.2111814396261003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.01294176840898741</v>
+      </c>
+      <c r="D73">
+        <v>-0.01341756226685067</v>
+      </c>
+      <c r="E73">
+        <v>-0.06407840120625348</v>
+      </c>
+      <c r="F73">
+        <v>-0.03946676147701478</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.02163775815106735</v>
+        <v>0.09485813395499752</v>
       </c>
       <c r="C74">
-        <v>-0.1167387542672431</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01298767483302961</v>
+      </c>
+      <c r="D74">
+        <v>-0.01815406311326161</v>
+      </c>
+      <c r="E74">
+        <v>-0.04518414145308854</v>
+      </c>
+      <c r="F74">
+        <v>-0.05791432041532169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04441635357824985</v>
+        <v>0.1290706641803617</v>
       </c>
       <c r="C75">
-        <v>-0.1341054416223686</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02757945017326763</v>
+      </c>
+      <c r="D75">
+        <v>-0.0300355868605698</v>
+      </c>
+      <c r="E75">
+        <v>-0.05934556233497411</v>
+      </c>
+      <c r="F75">
+        <v>-0.02033764760725868</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.0004929160512541614</v>
+        <v>0.001355181422733044</v>
       </c>
       <c r="C76">
-        <v>-0.005167988776874682</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.0003555396201917632</v>
+      </c>
+      <c r="D76">
+        <v>0.0009307191337516536</v>
+      </c>
+      <c r="E76">
+        <v>-0.0004404500229279861</v>
+      </c>
+      <c r="F76">
+        <v>-0.001946266378609176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.02293643771238343</v>
+        <v>0.08078692069898002</v>
       </c>
       <c r="C77">
-        <v>-0.1078362061156108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.0086042758118494</v>
+      </c>
+      <c r="D77">
+        <v>-0.1184712588460477</v>
+      </c>
+      <c r="E77">
+        <v>-0.04086106396432088</v>
+      </c>
+      <c r="F77">
+        <v>-0.0274683594545444</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.05994550494962864</v>
+        <v>0.101537123645815</v>
       </c>
       <c r="C78">
-        <v>-0.1134842673282722</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.0397747498587846</v>
+      </c>
+      <c r="D78">
+        <v>-0.116261483076557</v>
+      </c>
+      <c r="E78">
+        <v>-0.07896586372764497</v>
+      </c>
+      <c r="F78">
+        <v>-0.04509444201434383</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.03732783418342386</v>
+        <v>0.1646991828549279</v>
       </c>
       <c r="C79">
-        <v>-0.146256056823852</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.0217309313669743</v>
+      </c>
+      <c r="D79">
+        <v>-0.01682365612284893</v>
+      </c>
+      <c r="E79">
+        <v>-0.04796805488146669</v>
+      </c>
+      <c r="F79">
+        <v>-0.01525154574128274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.007912466466616008</v>
+        <v>0.08152778922477465</v>
       </c>
       <c r="C80">
-        <v>-0.09760416368245106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.0004409785809776993</v>
+      </c>
+      <c r="D80">
+        <v>-0.05689708122270374</v>
+      </c>
+      <c r="E80">
+        <v>-0.03634178143383712</v>
+      </c>
+      <c r="F80">
+        <v>0.02546364746076705</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.0442518154085661</v>
+        <v>0.123012869148094</v>
       </c>
       <c r="C81">
-        <v>-0.1528499455723865</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03141052306332567</v>
+      </c>
+      <c r="D81">
+        <v>-0.01569307428904713</v>
+      </c>
+      <c r="E81">
+        <v>-0.05922579965109824</v>
+      </c>
+      <c r="F81">
+        <v>-0.01882022581892758</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.03601690687878255</v>
+        <v>0.1653766937744703</v>
       </c>
       <c r="C82">
-        <v>-0.1731708164716369</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.02402680566746157</v>
+      </c>
+      <c r="D82">
+        <v>-0.005152754422525216</v>
+      </c>
+      <c r="E82">
+        <v>-0.02806274915519177</v>
+      </c>
+      <c r="F82">
+        <v>-0.08135821465943313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.01717061380277419</v>
+        <v>0.06148205038507683</v>
       </c>
       <c r="C83">
-        <v>-0.07911743203964669</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.003352932143171273</v>
+      </c>
+      <c r="D83">
+        <v>-0.0497978529600045</v>
+      </c>
+      <c r="E83">
+        <v>-0.00578691479654624</v>
+      </c>
+      <c r="F83">
+        <v>0.03265268417202818</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02413501019106465</v>
+        <v>0.05828942685282155</v>
       </c>
       <c r="C84">
-        <v>-0.07451011189896597</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01096466877894161</v>
+      </c>
+      <c r="D84">
+        <v>-0.06596291309586352</v>
+      </c>
+      <c r="E84">
+        <v>-0.007306923997955329</v>
+      </c>
+      <c r="F84">
+        <v>-0.005982201491077681</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.03843453580793266</v>
+        <v>0.1380196362623914</v>
       </c>
       <c r="C85">
-        <v>-0.1203632836451445</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.02740110961212538</v>
+      </c>
+      <c r="D85">
+        <v>-0.01064675894729694</v>
+      </c>
+      <c r="E85">
+        <v>-0.03954548808553131</v>
+      </c>
+      <c r="F85">
+        <v>-0.04805724799396899</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.01507455890855227</v>
+        <v>0.09639220124098463</v>
       </c>
       <c r="C86">
-        <v>-0.1137731866616399</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.006568042354651137</v>
+      </c>
+      <c r="D86">
+        <v>-0.04001102117639876</v>
+      </c>
+      <c r="E86">
+        <v>-0.2121797438841026</v>
+      </c>
+      <c r="F86">
+        <v>0.9080596804341218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.04286536663207779</v>
+        <v>0.09588830769677589</v>
       </c>
       <c r="C87">
-        <v>-0.1094255517392077</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.0216175367533117</v>
+      </c>
+      <c r="D87">
+        <v>-0.09233096211820734</v>
+      </c>
+      <c r="E87">
+        <v>0.05302530104106946</v>
+      </c>
+      <c r="F87">
+        <v>-0.05116365206850693</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01383674736110829</v>
+        <v>0.06097319447140408</v>
       </c>
       <c r="C88">
-        <v>-0.05794111523592869</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.002576850274705545</v>
+      </c>
+      <c r="D88">
+        <v>-0.05044077514765591</v>
+      </c>
+      <c r="E88">
+        <v>-0.025259378143575</v>
+      </c>
+      <c r="F88">
+        <v>-0.013883311729761</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.0006638002566713859</v>
+        <v>0.1332957301662507</v>
       </c>
       <c r="C89">
-        <v>-0.04986885423594381</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.01000140318615451</v>
+      </c>
+      <c r="D89">
+        <v>0.2509477714225821</v>
+      </c>
+      <c r="E89">
+        <v>0.09021145600667985</v>
+      </c>
+      <c r="F89">
+        <v>0.006317308113333561</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.01881308393825892</v>
+        <v>0.1477771136343633</v>
       </c>
       <c r="C90">
-        <v>-0.03160480060622613</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.02842281848783771</v>
+      </c>
+      <c r="D90">
+        <v>0.2662563103185681</v>
+      </c>
+      <c r="E90">
+        <v>0.1117076337354547</v>
+      </c>
+      <c r="F90">
+        <v>0.003991732509163516</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.02298440591344702</v>
+        <v>0.1196430769813416</v>
       </c>
       <c r="C91">
-        <v>-0.09185838359954064</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01800185174360869</v>
+      </c>
+      <c r="D91">
+        <v>0.01138387373958704</v>
+      </c>
+      <c r="E91">
+        <v>-0.05736575750085501</v>
+      </c>
+      <c r="F91">
+        <v>0.0006933786286590797</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-2.299411827181714e-05</v>
+        <v>0.1467832896723493</v>
       </c>
       <c r="C92">
-        <v>-0.04721342669370369</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.02056520123240314</v>
+      </c>
+      <c r="D92">
+        <v>0.2908940565777985</v>
+      </c>
+      <c r="E92">
+        <v>0.1022204794859759</v>
+      </c>
+      <c r="F92">
+        <v>0.01557513910289088</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.01323702453297722</v>
+        <v>0.1507245341362659</v>
       </c>
       <c r="C93">
-        <v>-0.03528957830141238</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.02459018019590827</v>
+      </c>
+      <c r="D93">
+        <v>0.2663425142415909</v>
+      </c>
+      <c r="E93">
+        <v>0.07863523088448066</v>
+      </c>
+      <c r="F93">
+        <v>-0.002880337445874846</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.04530096959052771</v>
+        <v>0.132053292261516</v>
       </c>
       <c r="C94">
-        <v>-0.1579466237382951</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02449477907959136</v>
+      </c>
+      <c r="D94">
+        <v>-0.0436906748938318</v>
+      </c>
+      <c r="E94">
+        <v>-0.05861800004848677</v>
+      </c>
+      <c r="F94">
+        <v>-0.03711565848408888</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.03393063703059088</v>
+        <v>0.1259907819587801</v>
       </c>
       <c r="C95">
-        <v>-0.1328233675934655</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.004470068130916252</v>
+      </c>
+      <c r="D95">
+        <v>-0.09267185769598184</v>
+      </c>
+      <c r="E95">
+        <v>-0.04678914879313401</v>
+      </c>
+      <c r="F95">
+        <v>0.01129565269179913</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.9724635716515362</v>
+        <v>0.1034640737269332</v>
       </c>
       <c r="C96">
-        <v>-0.2149631489217403</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.9881668819686324</v>
+      </c>
+      <c r="D96">
+        <v>0.03767991589204222</v>
+      </c>
+      <c r="E96">
+        <v>-0.05664626117995956</v>
+      </c>
+      <c r="F96">
+        <v>-0.0432760152700977</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.0122682696086372</v>
+        <v>0.190909371650402</v>
       </c>
       <c r="C97">
-        <v>-0.1730033957385326</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.008747438757837534</v>
+      </c>
+      <c r="D97">
+        <v>0.01734192611925294</v>
+      </c>
+      <c r="E97">
+        <v>-0.01597203883796102</v>
+      </c>
+      <c r="F97">
+        <v>0.09311077540153929</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.03197668809039329</v>
+        <v>0.2060982628989632</v>
       </c>
       <c r="C98">
-        <v>-0.1957350870663469</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.007438893146726127</v>
+      </c>
+      <c r="D98">
+        <v>-0.006699723687454123</v>
+      </c>
+      <c r="E98">
+        <v>0.08674174151279634</v>
+      </c>
+      <c r="F98">
+        <v>0.09517054520682881</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.006526902286107561</v>
+        <v>0.05584821846454632</v>
       </c>
       <c r="C99">
-        <v>-0.05574974528555</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.004410354051862487</v>
+      </c>
+      <c r="D99">
+        <v>-0.03893853747550014</v>
+      </c>
+      <c r="E99">
+        <v>-0.02384174060343587</v>
+      </c>
+      <c r="F99">
+        <v>-0.0006235754478619096</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.002912012746390246</v>
+        <v>0.127004574347408</v>
       </c>
       <c r="C100">
-        <v>-0.1324723900998664</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.05257831373430219</v>
+      </c>
+      <c r="D100">
+        <v>-0.3493278054522755</v>
+      </c>
+      <c r="E100">
+        <v>0.8867335578503021</v>
+      </c>
+      <c r="F100">
+        <v>0.1372371786755095</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01561086308958715</v>
+        <v>0.02643842304683482</v>
       </c>
       <c r="C101">
-        <v>-0.02803971464984128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.008207614227687138</v>
+      </c>
+      <c r="D101">
+        <v>-0.03294575789497534</v>
+      </c>
+      <c r="E101">
+        <v>-0.01045026720984993</v>
+      </c>
+      <c r="F101">
+        <v>0.01323313375335354</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
